--- a/va_facility_data_2025-02-20/Washington VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Washington%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Washington VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Washington%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R8f409e483039439ba8a620da749f35a4"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R8186aebec9bd43d9a09ecb2776946488"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R2e5732da5aec4ae2a5b22c62a289ed2d"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R99e5a10afe4e40e7818e7f6bb08839e9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R181c46f1cd9f4deca60c250a04a22117"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R7895e4a4fb6b4573af41171726a40079"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rfd8fba9d5e114ab3be0417cd5549fb8c"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R7c6c5c0003464d2d82c89f2fc9539f97"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf1edd58d310147f3956ed831e700294b"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Re45ede02a8dd4d1897bae44f9ccc8c2d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R5ca5f280dc79474eb56d92c0916e3976"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R550e396b593942258e068c9e008221e8"/>
   </x:sheets>
 </x:workbook>
 </file>
